--- a/Kroger/urlLocations.xlsx
+++ b/Kroger/urlLocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhua/Projects/scrape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhua/Projects/scrape/Kroger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC41724-9AB6-1E4B-A195-4B02236EC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB844A7E-1EDD-A846-818D-278E4AA7F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="122">
   <si>
     <t xml:space="preserve">https://www.loblaws.ca/ </t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Sotomayor 230, Reñaca, Viña Del Mar</t>
+  </si>
+  <si>
+    <t>https://www.marianos.com/</t>
   </si>
 </sst>
 </file>
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="217" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="217" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,7 +921,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
@@ -946,8 +949,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
+      <c r="A16" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -1756,6 +1759,8 @@
     <hyperlink ref="A30" r:id="rId7" xr:uid="{5EA46185-AFF1-47BA-9918-4931A8C4CD5C}"/>
     <hyperlink ref="A6" r:id="rId8" xr:uid="{39A5044A-1B2C-431A-B450-EFD575ECF67B}"/>
     <hyperlink ref="A69" r:id="rId9" xr:uid="{47B00E15-123E-4DEC-B84F-33F9E358CC2C}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{E33AFF6A-187B-9A40-BE18-3364CA40CEF5}"/>
+    <hyperlink ref="A16" r:id="rId11" xr:uid="{468E2940-F424-A149-A653-F7667FDAF1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
